--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y358"/>
+  <dimension ref="A1:Y359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
       </c>
       <c r="R357" s="2" t="inlineStr"/>
     </row>
-    <row r="358">
+    <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
           <t>A 40130-2023</t>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22643,6 +22643,68 @@
         <v>0</v>
       </c>
       <c r="R358" s="2" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>A 43172-2023</t>
+        </is>
+      </c>
+      <c r="B359" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C359" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>BJURHOLM</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>0</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 24114-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 24114-2021.xlsx", "A 24114-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 24114-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 24114-2021.png", "A 24114-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 24114-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 24114-2021.png", "A 24114-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 24114-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 24114-2021.docx", "A 24114-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 24114-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 24114-2021.docx", "A 24114-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 24114-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 24114-2021.docx", "A 24114-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 24114-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 24114-2021.docx", "A 24114-2021")</f>
         <v/>
       </c>
     </row>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 19109-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 19109-2022.xlsx", "A 19109-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 19109-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 19109-2022.png", "A 19109-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 19109-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 19109-2022.png", "A 19109-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 19109-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 19109-2022.docx", "A 19109-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 19109-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 19109-2022.docx", "A 19109-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 19109-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 19109-2022.docx", "A 19109-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 19109-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 19109-2022.docx", "A 19109-2022")</f>
         <v/>
       </c>
     </row>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,27 +858,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 30597-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 30597-2019.xlsx", "A 30597-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 30597-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 30597-2019.png", "A 30597-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 30597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 30597-2019.docx", "A 30597-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 30597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 30597-2019.docx", "A 30597-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 30597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 30597-2019.docx", "A 30597-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 30597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 30597-2019.docx", "A 30597-2019")</f>
         <v/>
       </c>
     </row>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,31 +954,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 21627-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 21627-2023.xlsx", "A 21627-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 21627-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 21627-2023.png", "A 21627-2023")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 21627-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 21627-2023.png", "A 21627-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 21627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 21627-2023.docx", "A 21627-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 21627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 21627-2023.docx", "A 21627-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 21627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 21627-2023.docx", "A 21627-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 21627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 21627-2023.docx", "A 21627-2023")</f>
         <v/>
       </c>
     </row>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,27 +1053,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 67029-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 67029-2020.xlsx", "A 67029-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 67029-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 67029-2020.png", "A 67029-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 67029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 67029-2020.docx", "A 67029-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 67029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 67029-2020.docx", "A 67029-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 67029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 67029-2020.docx", "A 67029-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 67029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 67029-2020.docx", "A 67029-2020")</f>
         <v/>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,31 +1147,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 13605-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 13605-2022.xlsx", "A 13605-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 13605-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 13605-2022.png", "A 13605-2022")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 13605-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 13605-2022.png", "A 13605-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 13605-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 13605-2022.docx", "A 13605-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 13605-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 13605-2022.docx", "A 13605-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 13605-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 13605-2022.docx", "A 13605-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 13605-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 13605-2022.docx", "A 13605-2022")</f>
         <v/>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,31 +1241,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 14108-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 14108-2023.xlsx", "A 14108-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 14108-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 14108-2023.png", "A 14108-2023")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 14108-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 14108-2023.png", "A 14108-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 14108-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 14108-2023.docx", "A 14108-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 14108-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 14108-2023.docx", "A 14108-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 14108-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 14108-2023.docx", "A 14108-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 14108-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 14108-2023.docx", "A 14108-2023")</f>
         <v/>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1334,27 +1334,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 55009-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 55009-2022.xlsx", "A 55009-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 55009-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 55009-2022.png", "A 55009-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 55009-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 55009-2022.docx", "A 55009-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 55009-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 55009-2022.docx", "A 55009-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 55009-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 55009-2022.docx", "A 55009-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 55009-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 55009-2022.docx", "A 55009-2022")</f>
         <v/>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,27 +1423,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 18951-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 18951-2023.xlsx", "A 18951-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 18951-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 18951-2023.png", "A 18951-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 18951-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 18951-2023.docx", "A 18951-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 18951-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 18951-2023.docx", "A 18951-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 18951-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 18951-2023.docx", "A 18951-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 18951-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 18951-2023.docx", "A 18951-2023")</f>
         <v/>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1511,27 +1511,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 69071-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 69071-2018.xlsx", "A 69071-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 69071-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 69071-2018.png", "A 69071-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 69071-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 69071-2018.docx", "A 69071-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 69071-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 69071-2018.docx", "A 69071-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 69071-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 69071-2018.docx", "A 69071-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 69071-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 69071-2018.docx", "A 69071-2018")</f>
         <v/>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,27 +1599,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 4365-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 4365-2022.xlsx", "A 4365-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 4365-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 4365-2022.png", "A 4365-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 4365-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 4365-2022.docx", "A 4365-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 4365-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 4365-2022.docx", "A 4365-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 4365-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 4365-2022.docx", "A 4365-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 4365-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 4365-2022.docx", "A 4365-2022")</f>
         <v/>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,27 +1687,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 18950-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 18950-2023.xlsx", "A 18950-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 18950-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 18950-2023.png", "A 18950-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 18950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 18950-2023.docx", "A 18950-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 18950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 18950-2023.docx", "A 18950-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 18950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 18950-2023.docx", "A 18950-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 18950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 18950-2023.docx", "A 18950-2023")</f>
         <v/>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,27 +1774,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 17571-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 17571-2020.xlsx", "A 17571-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 17571-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 17571-2020.png", "A 17571-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 17571-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 17571-2020.docx", "A 17571-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 17571-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 17571-2020.docx", "A 17571-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 17571-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 17571-2020.docx", "A 17571-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 17571-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 17571-2020.docx", "A 17571-2020")</f>
         <v/>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,27 +1866,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 51714-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 51714-2021.xlsx", "A 51714-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 51714-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 51714-2021.png", "A 51714-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 51714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 51714-2021.docx", "A 51714-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 51714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 51714-2021.docx", "A 51714-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 51714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 51714-2021.docx", "A 51714-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 51714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 51714-2021.docx", "A 51714-2021")</f>
         <v/>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1952,27 +1952,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 40016-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 40016-2018.xlsx", "A 40016-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 40016-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 40016-2018.png", "A 40016-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 40016-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 40016-2018.docx", "A 40016-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 40016-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 40016-2018.docx", "A 40016-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 40016-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 40016-2018.docx", "A 40016-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 40016-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 40016-2018.docx", "A 40016-2018")</f>
         <v/>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2038,27 +2038,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 58398-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 58398-2019.xlsx", "A 58398-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 58398-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 58398-2019.png", "A 58398-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 58398-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 58398-2019.docx", "A 58398-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 58398-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 58398-2019.docx", "A 58398-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 58398-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 58398-2019.docx", "A 58398-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 58398-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 58398-2019.docx", "A 58398-2019")</f>
         <v/>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,27 +2124,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 54823-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 54823-2022.xlsx", "A 54823-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 54823-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 54823-2022.png", "A 54823-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 54823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 54823-2022.docx", "A 54823-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 54823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 54823-2022.docx", "A 54823-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 54823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 54823-2022.docx", "A 54823-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 54823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 54823-2022.docx", "A 54823-2022")</f>
         <v/>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2215,27 +2215,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 57634-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 57634-2022.xlsx", "A 57634-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 57634-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 57634-2022.png", "A 57634-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 57634-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 57634-2022.docx", "A 57634-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 57634-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 57634-2022.docx", "A 57634-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 57634-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 57634-2022.docx", "A 57634-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 57634-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 57634-2022.docx", "A 57634-2022")</f>
         <v/>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,27 +2301,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 60688-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 60688-2022.xlsx", "A 60688-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 60688-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 60688-2022.png", "A 60688-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 60688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 60688-2022.docx", "A 60688-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 60688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 60688-2022.docx", "A 60688-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 60688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 60688-2022.docx", "A 60688-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 60688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 60688-2022.docx", "A 60688-2022")</f>
         <v/>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2392,31 +2392,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 31206-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 31206-2023.xlsx", "A 31206-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 31206-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 31206-2023.png", "A 31206-2023")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 31206-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/knärot/A 31206-2023.png", "A 31206-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 31206-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 31206-2023.docx", "A 31206-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 31206-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 31206-2023.docx", "A 31206-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 31206-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 31206-2023.docx", "A 31206-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 31206-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 31206-2023.docx", "A 31206-2023")</f>
         <v/>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,27 +2487,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 31737-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 31737-2023.xlsx", "A 31737-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 31737-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 31737-2023.png", "A 31737-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 31737-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 31737-2023.docx", "A 31737-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 31737-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 31737-2023.docx", "A 31737-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 31737-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 31737-2023.docx", "A 31737-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 31737-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 31737-2023.docx", "A 31737-2023")</f>
         <v/>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2572,27 +2572,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 68353-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 68353-2018.xlsx", "A 68353-2018")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 68353-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 68353-2018.png", "A 68353-2018")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 68353-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 68353-2018.docx", "A 68353-2018")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 68353-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 68353-2018.docx", "A 68353-2018")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 68353-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 68353-2018.docx", "A 68353-2018")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 68353-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 68353-2018.docx", "A 68353-2018")</f>
         <v/>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2662,27 +2662,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 7978-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 7978-2019.xlsx", "A 7978-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 7978-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 7978-2019.png", "A 7978-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 7978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 7978-2019.docx", "A 7978-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 7978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 7978-2019.docx", "A 7978-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 7978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 7978-2019.docx", "A 7978-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 7978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 7978-2019.docx", "A 7978-2019")</f>
         <v/>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,27 +2752,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 7576-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 7576-2019.xlsx", "A 7576-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 7576-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 7576-2019.png", "A 7576-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 7576-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 7576-2019.docx", "A 7576-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 7576-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 7576-2019.docx", "A 7576-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 7576-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 7576-2019.docx", "A 7576-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 7576-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 7576-2019.docx", "A 7576-2019")</f>
         <v/>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2837,27 +2837,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 19106-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 19106-2019.xlsx", "A 19106-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 19106-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 19106-2019.png", "A 19106-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 19106-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 19106-2019.docx", "A 19106-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 19106-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 19106-2019.docx", "A 19106-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 19106-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 19106-2019.docx", "A 19106-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 19106-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 19106-2019.docx", "A 19106-2019")</f>
         <v/>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2922,27 +2922,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 39136-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 39136-2019.xlsx", "A 39136-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 39136-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 39136-2019.png", "A 39136-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 39136-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 39136-2019.docx", "A 39136-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 39136-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 39136-2019.docx", "A 39136-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 39136-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 39136-2019.docx", "A 39136-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 39136-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 39136-2019.docx", "A 39136-2019")</f>
         <v/>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3012,27 +3012,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 495-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 495-2020.xlsx", "A 495-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 495-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 495-2020.png", "A 495-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 495-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 495-2020.docx", "A 495-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 495-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 495-2020.docx", "A 495-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 495-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 495-2020.docx", "A 495-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 495-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 495-2020.docx", "A 495-2020")</f>
         <v/>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3097,27 +3097,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 19295-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 19295-2020.xlsx", "A 19295-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 19295-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 19295-2020.png", "A 19295-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 19295-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 19295-2020.docx", "A 19295-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 19295-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 19295-2020.docx", "A 19295-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 19295-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 19295-2020.docx", "A 19295-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 19295-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 19295-2020.docx", "A 19295-2020")</f>
         <v/>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3187,27 +3187,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 14088-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 14088-2021.xlsx", "A 14088-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 14088-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 14088-2021.png", "A 14088-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 14088-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 14088-2021.docx", "A 14088-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 14088-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 14088-2021.docx", "A 14088-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 14088-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 14088-2021.docx", "A 14088-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 14088-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 14088-2021.docx", "A 14088-2021")</f>
         <v/>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,27 +3277,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 14083-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 14083-2021.xlsx", "A 14083-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 14083-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 14083-2021.png", "A 14083-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 14083-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 14083-2021.docx", "A 14083-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 14083-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 14083-2021.docx", "A 14083-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 14083-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 14083-2021.docx", "A 14083-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 14083-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 14083-2021.docx", "A 14083-2021")</f>
         <v/>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,27 +3367,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 57865-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 57865-2021.xlsx", "A 57865-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 57865-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 57865-2021.png", "A 57865-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 57865-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 57865-2021.docx", "A 57865-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 57865-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 57865-2021.docx", "A 57865-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 57865-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 57865-2021.docx", "A 57865-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 57865-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 57865-2021.docx", "A 57865-2021")</f>
         <v/>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3457,27 +3457,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 16145-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 16145-2022.xlsx", "A 16145-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 16145-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 16145-2022.png", "A 16145-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 16145-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 16145-2022.docx", "A 16145-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 16145-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 16145-2022.docx", "A 16145-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 16145-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 16145-2022.docx", "A 16145-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 16145-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 16145-2022.docx", "A 16145-2022")</f>
         <v/>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3542,27 +3542,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 43969-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 43969-2022.xlsx", "A 43969-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 43969-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 43969-2022.png", "A 43969-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 43969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 43969-2022.docx", "A 43969-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 43969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 43969-2022.docx", "A 43969-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 43969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 43969-2022.docx", "A 43969-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 43969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 43969-2022.docx", "A 43969-2022")</f>
         <v/>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,27 +3632,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 52690-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 52690-2022.xlsx", "A 52690-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 52690-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 52690-2022.png", "A 52690-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 52690-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 52690-2022.docx", "A 52690-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 52690-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 52690-2022.docx", "A 52690-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 52690-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 52690-2022.docx", "A 52690-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 52690-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 52690-2022.docx", "A 52690-2022")</f>
         <v/>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,27 +3717,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 62112-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 62112-2022.xlsx", "A 62112-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 62112-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 62112-2022.png", "A 62112-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 62112-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 62112-2022.docx", "A 62112-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 62112-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 62112-2022.docx", "A 62112-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 62112-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 62112-2022.docx", "A 62112-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 62112-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 62112-2022.docx", "A 62112-2022")</f>
         <v/>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3807,27 +3807,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 11819-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 11819-2023.xlsx", "A 11819-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 11819-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 11819-2023.png", "A 11819-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 11819-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 11819-2023.docx", "A 11819-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 11819-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 11819-2023.docx", "A 11819-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 11819-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 11819-2023.docx", "A 11819-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 11819-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 11819-2023.docx", "A 11819-2023")</f>
         <v/>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3897,27 +3897,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 20608-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 20608-2023.xlsx", "A 20608-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 20608-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 20608-2023.png", "A 20608-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 20608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 20608-2023.docx", "A 20608-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 20608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 20608-2023.docx", "A 20608-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 20608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 20608-2023.docx", "A 20608-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 20608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 20608-2023.docx", "A 20608-2023")</f>
         <v/>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3987,27 +3987,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 35280-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/artfynd/A 35280-2023.xlsx", "A 35280-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 35280-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/kartor/A 35280-2023.png", "A 35280-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 35280-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomål/A 35280-2023.docx", "A 35280-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 35280-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/klagomålsmail/A 35280-2023.docx", "A 35280-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 35280-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsyn/A 35280-2023.docx", "A 35280-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 35280-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BJURHOLM/tillsynsmail/A 35280-2023.docx", "A 35280-2023")</f>
         <v/>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y359"/>
+  <dimension ref="A1:Y360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
       </c>
       <c r="R358" s="2" t="inlineStr"/>
     </row>
-    <row r="359">
+    <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
           <t>A 43172-2023</t>
@@ -22654,7 +22654,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22705,6 +22705,63 @@
         <v>0</v>
       </c>
       <c r="R359" s="2" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>A 44629-2023</t>
+        </is>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C360" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>BJURHOLM</t>
+        </is>
+      </c>
+      <c r="G360" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="n">
+        <v>0</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R360" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45189</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45189</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45189</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -709,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -744,11 +744,13 @@
 Granticka
 Järpe
 Lunglav
+Motaggsvamp
 Tretåig hackspett
 Ullticka
 Violettgrå tagellav
 Bollvitmossa
 Bårdlav
+Grönpyrola
 Plattlummer
 Spindelblomster
 Stuplav
@@ -794,7 +796,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +894,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -911,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -935,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -947,10 +949,12 @@
 Ullticka
 Vitgrynig nållav
 Bårdlav
+Dropptaggsvamp
 Luddlav
 Skinnlav
 Stor aspticka
-Stuplav</t>
+Stuplav
+Vedticka</t>
         </is>
       </c>
       <c r="S5">
@@ -992,7 +996,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1091,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1189,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1283,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1372,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1461,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1549,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1637,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1725,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1812,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1904,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1990,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2076,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2162,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2253,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2339,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2434,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2525,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2610,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2700,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2786,7 +2790,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2875,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2960,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3050,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3135,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3315,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3401,7 +3405,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3495,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3580,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3670,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3755,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3845,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3935,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4025,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4082,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4139,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4196,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4249,7 +4253,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4306,7 +4310,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4363,7 +4367,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4420,7 +4424,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4477,7 +4481,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4534,7 +4538,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4591,7 +4595,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4648,7 +4652,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4705,7 +4709,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4762,7 +4766,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4819,7 +4823,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4876,7 +4880,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4942,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4999,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5056,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5113,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5170,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5227,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5280,7 +5284,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5337,7 +5341,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5394,7 +5398,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5451,7 +5455,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5508,7 +5512,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5565,7 +5569,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5631,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5689,7 +5693,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5746,7 +5750,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5803,7 +5807,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5860,7 +5864,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5917,7 +5921,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5974,7 +5978,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6031,7 +6035,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6088,7 +6092,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6145,7 +6149,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6202,7 +6206,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6259,7 +6263,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6325,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6382,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6439,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6496,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6553,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6610,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6667,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6724,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6781,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6838,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6891,7 +6895,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6948,7 +6952,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7005,7 +7009,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7062,7 +7066,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7119,7 +7123,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7176,7 +7180,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7237,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7294,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7351,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7413,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7470,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7523,7 +7527,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7580,7 +7584,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7637,7 +7641,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7694,7 +7698,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7756,7 +7760,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7822,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7879,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7941,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7999,7 +8003,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8061,7 +8065,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8123,7 +8127,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8180,7 +8184,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8237,7 +8241,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8294,7 +8298,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,7 +8355,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8417,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8474,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8531,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,7 +8593,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8655,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8708,7 +8712,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8765,7 +8769,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8822,7 +8826,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8884,7 +8888,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8941,7 +8945,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8998,7 +9002,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9055,7 +9059,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9117,7 +9121,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9179,7 +9183,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9236,7 +9240,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9293,7 +9297,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9350,7 +9354,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9407,7 +9411,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9464,7 +9468,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9521,7 +9525,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9583,7 +9587,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9644,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9697,7 +9701,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9754,7 +9758,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9811,7 +9815,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9868,7 +9872,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9925,7 +9929,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9982,7 +9986,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10039,7 +10043,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,7 +10100,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10157,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10219,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10281,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10334,7 +10338,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10396,7 +10400,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10453,7 +10457,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,7 +10514,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10576,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10633,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10686,7 +10690,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10743,7 +10747,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10800,7 +10804,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10857,7 +10861,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10914,7 +10918,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10975,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11028,7 +11032,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11085,7 +11089,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11142,7 +11146,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11199,7 +11203,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11256,7 +11260,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11313,7 +11317,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11370,7 +11374,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11432,7 +11436,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11494,7 +11498,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11551,7 +11555,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11608,7 +11612,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11665,7 +11669,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11726,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11783,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11841,7 +11845,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11903,7 +11907,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11960,7 +11964,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12017,7 +12021,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12079,7 +12083,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12136,7 +12140,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12193,7 +12197,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12250,7 +12254,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12312,7 +12316,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12369,7 +12373,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12426,7 +12430,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12483,7 +12487,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12540,7 +12544,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12597,7 +12601,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12654,7 +12658,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12716,7 +12720,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12773,7 +12777,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12830,7 +12834,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12887,7 +12891,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12944,7 +12948,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13001,7 +13005,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13058,7 +13062,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13120,7 +13124,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13177,7 +13181,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13234,7 +13238,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13291,7 +13295,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13353,7 +13357,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13410,7 +13414,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13467,7 +13471,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13524,7 +13528,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13581,7 +13585,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13638,7 +13642,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13695,7 +13699,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13752,7 +13756,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13809,7 +13813,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13866,7 +13870,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13923,7 +13927,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13980,7 +13984,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14042,7 +14046,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14099,7 +14103,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14156,7 +14160,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14213,7 +14217,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14275,7 +14279,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14332,7 +14336,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14389,7 +14393,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14446,7 +14450,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14503,7 +14507,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14560,7 +14564,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14622,7 +14626,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14684,7 +14688,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14746,7 +14750,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14803,7 +14807,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14860,7 +14864,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14922,7 +14926,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14984,7 +14988,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15046,7 +15050,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15108,7 +15112,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15165,7 +15169,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15227,7 +15231,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15293,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15351,7 +15355,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15412,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15469,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15526,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15583,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15640,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15693,7 +15697,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15750,7 +15754,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15807,7 +15811,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15864,7 +15868,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15921,7 +15925,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15978,7 +15982,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16035,7 +16039,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16092,7 +16096,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16149,7 +16153,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16210,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16263,7 +16267,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16320,7 +16324,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16386,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16443,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16501,7 +16505,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16562,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16624,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16682,7 +16686,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16744,7 +16748,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16801,7 +16805,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16863,7 +16867,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16925,7 +16929,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16986,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17039,7 +17043,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17105,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17158,7 +17162,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17224,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17282,7 +17286,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17343,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17400,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17453,7 +17457,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17510,7 +17514,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17567,7 +17571,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17624,7 +17628,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17681,7 +17685,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17743,7 +17747,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17800,7 +17804,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17857,7 +17861,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17914,7 +17918,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17971,7 +17975,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18028,7 +18032,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18085,7 +18089,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18142,7 +18146,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18199,7 +18203,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18256,7 +18260,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18313,7 +18317,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18370,7 +18374,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18427,7 +18431,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18484,7 +18488,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18541,7 +18545,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18598,7 +18602,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18655,7 +18659,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18712,7 +18716,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18774,7 +18778,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18836,7 +18840,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18893,7 +18897,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18950,7 +18954,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19011,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19068,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19125,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19182,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19235,7 +19239,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19292,7 +19296,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19349,7 +19353,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19415,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19472,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19525,7 +19529,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19591,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19648,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19706,7 +19710,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19768,7 +19772,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19830,7 +19834,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19892,7 +19896,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19954,7 +19958,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20016,7 +20020,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20078,7 +20082,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20135,7 +20139,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20197,7 +20201,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20263,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20320,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20373,7 +20377,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20435,7 +20439,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20501,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20563,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20625,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20687,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20745,7 +20749,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20802,7 +20806,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20859,7 +20863,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20921,7 +20925,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20983,7 +20987,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21045,7 +21049,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21102,7 +21106,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21159,7 +21163,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21221,7 +21225,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21287,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21344,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21402,7 +21406,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21459,7 +21463,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21521,7 +21525,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21583,7 +21587,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21640,7 +21644,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21702,7 +21706,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21759,7 +21763,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21821,7 +21825,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21887,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21945,7 +21949,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22011,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22064,7 +22068,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22126,7 +22130,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22188,7 +22192,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22245,7 +22249,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22302,7 +22306,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22359,7 +22363,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22416,7 +22420,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22482,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22540,7 +22544,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22597,7 +22601,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22654,7 +22658,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22716,7 +22720,7 @@
         <v>45189</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44691</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>43635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44588</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43920</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44883</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44911</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43497</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43564</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43689</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44277</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>44665</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44837</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44920</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>44994</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45057</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43399</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43399</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43402</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43402</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43404</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>43406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43426</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>43441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43473</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>43522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43557</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43570</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43577</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43597</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43608</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43619</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43683</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43683</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>43747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>43777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43787</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43801</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43811</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43917</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43929</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43937</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43945</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>43948</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>43994</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44005</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44007</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44067</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44078</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44081</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44085</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44123</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44152</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44152</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44152</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44154</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44172</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44235</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44312</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>44370</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>44375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44397</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44440</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44441</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44442</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44449</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44461</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44461</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44461</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44462</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44490</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>44508</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>44509</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44551</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44580</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44588</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44599</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>44602</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>44608</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44608</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44620</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>44620</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>44620</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44630</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>44673</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>44679</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>44680</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>44694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44701</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44722</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44746</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>44746</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44753</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>44756</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>44756</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>44770</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44770</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44774</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>44774</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>44776</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44783</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44785</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44792</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44792</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>44804</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44816</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44818</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>44826</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>44827</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44844</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44846</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44853</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44865</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44865</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44866</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>44908</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>44911</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44911</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>44916</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>44916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44918</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>44919</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>44919</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44924</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>44929</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44931</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>44949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44980</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44980</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44985</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44998</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45009</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45016</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45019</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>45019</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>45019</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>45021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45028</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45028</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>45033</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45033</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45042</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>45043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>45051</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>45054</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45056</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45060</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>45068</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45068</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45075</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>45075</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45075</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>45075</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45078</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>45078</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>45097</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>45097</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>45098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>45098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45099</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45102</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>45105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45106</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45106</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45107</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45110</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45113</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45121</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45139</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>45141</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45141</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>45142</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>45145</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>45145</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>45145</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>45148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>45152</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>45155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>45160</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>45163</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>45168</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>45168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45183</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45189</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
